--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.717699182511349</v>
+        <v>1.581301333333333</v>
       </c>
       <c r="H2">
-        <v>0.717699182511349</v>
+        <v>4.743904</v>
       </c>
       <c r="I2">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="J2">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N2">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P2">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q2">
-        <v>3.380175861742035</v>
+        <v>7.987111393731555</v>
       </c>
       <c r="R2">
-        <v>3.380175861742035</v>
+        <v>71.88400254358399</v>
       </c>
       <c r="S2">
-        <v>0.0008165959353512128</v>
+        <v>0.001592512483761037</v>
       </c>
       <c r="T2">
-        <v>0.0008165959353512128</v>
+        <v>0.001592512483761036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.717699182511349</v>
+        <v>1.581301333333333</v>
       </c>
       <c r="H3">
-        <v>0.717699182511349</v>
+        <v>4.743904</v>
       </c>
       <c r="I3">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="J3">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N3">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P3">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q3">
-        <v>16.74982241463598</v>
+        <v>37.13577967612088</v>
       </c>
       <c r="R3">
-        <v>16.74982241463598</v>
+        <v>334.2220170850879</v>
       </c>
       <c r="S3">
-        <v>0.00404648676906333</v>
+        <v>0.007404328024626713</v>
       </c>
       <c r="T3">
-        <v>0.00404648676906333</v>
+        <v>0.007404328024626713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.717699182511349</v>
+        <v>1.581301333333333</v>
       </c>
       <c r="H4">
-        <v>0.717699182511349</v>
+        <v>4.743904</v>
       </c>
       <c r="I4">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="J4">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N4">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O4">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P4">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q4">
-        <v>34.36994472765493</v>
+        <v>79.50507852147911</v>
       </c>
       <c r="R4">
-        <v>34.36994472765493</v>
+        <v>715.5457066933119</v>
       </c>
       <c r="S4">
-        <v>0.008303223947757664</v>
+        <v>0.01585214276180312</v>
       </c>
       <c r="T4">
-        <v>0.008303223947757664</v>
+        <v>0.01585214276180312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.717699182511349</v>
+        <v>1.581301333333333</v>
       </c>
       <c r="H5">
-        <v>0.717699182511349</v>
+        <v>4.743904</v>
       </c>
       <c r="I5">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="J5">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N5">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P5">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q5">
-        <v>38.86909800239548</v>
+        <v>85.92360593430044</v>
       </c>
       <c r="R5">
-        <v>38.86909800239548</v>
+        <v>773.3124534087038</v>
       </c>
       <c r="S5">
-        <v>0.009390146766850804</v>
+        <v>0.01713190268105284</v>
       </c>
       <c r="T5">
-        <v>0.009390146766850804</v>
+        <v>0.01713190268105284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.717699182511349</v>
+        <v>1.581301333333333</v>
       </c>
       <c r="H6">
-        <v>0.717699182511349</v>
+        <v>4.743904</v>
       </c>
       <c r="I6">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="J6">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N6">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P6">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q6">
-        <v>7.302532266494155</v>
+        <v>16.10280156147911</v>
       </c>
       <c r="R6">
-        <v>7.302532266494155</v>
+        <v>144.925214053312</v>
       </c>
       <c r="S6">
-        <v>0.001764173939611815</v>
+        <v>0.003210661683059541</v>
       </c>
       <c r="T6">
-        <v>0.001764173939611815</v>
+        <v>0.003210661683059541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.717699182511349</v>
+        <v>1.581301333333333</v>
       </c>
       <c r="H7">
-        <v>0.717699182511349</v>
+        <v>4.743904</v>
       </c>
       <c r="I7">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="J7">
-        <v>0.02558883854039816</v>
+        <v>0.04758699558318742</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N7">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P7">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q7">
-        <v>5.249569142594432</v>
+        <v>12.01416616869333</v>
       </c>
       <c r="R7">
-        <v>5.249569142594432</v>
+        <v>108.12749551824</v>
       </c>
       <c r="S7">
-        <v>0.001268211181763335</v>
+        <v>0.002395447948884169</v>
       </c>
       <c r="T7">
-        <v>0.001268211181763335</v>
+        <v>0.002395447948884169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.9662173749444</v>
+        <v>12.98967366666667</v>
       </c>
       <c r="H8">
-        <v>12.9662173749444</v>
+        <v>38.969021</v>
       </c>
       <c r="I8">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492308</v>
       </c>
       <c r="J8">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492307</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N8">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P8">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q8">
-        <v>61.06750022415439</v>
+        <v>65.61049962892677</v>
       </c>
       <c r="R8">
-        <v>61.06750022415439</v>
+        <v>590.4944966603409</v>
       </c>
       <c r="S8">
-        <v>0.0147529224823834</v>
+        <v>0.0130817681855379</v>
       </c>
       <c r="T8">
-        <v>0.0147529224823834</v>
+        <v>0.0130817681855379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.9662173749444</v>
+        <v>12.98967366666667</v>
       </c>
       <c r="H9">
-        <v>12.9662173749444</v>
+        <v>38.969021</v>
       </c>
       <c r="I9">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492308</v>
       </c>
       <c r="J9">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492307</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N9">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P9">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q9">
-        <v>302.608451719188</v>
+        <v>305.0535967949874</v>
       </c>
       <c r="R9">
-        <v>302.608451719188</v>
+        <v>2745.482371154887</v>
       </c>
       <c r="S9">
-        <v>0.07310531812077395</v>
+        <v>0.06082319842108249</v>
       </c>
       <c r="T9">
-        <v>0.07310531812077395</v>
+        <v>0.06082319842108249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.9662173749444</v>
+        <v>12.98967366666667</v>
       </c>
       <c r="H10">
-        <v>12.9662173749444</v>
+        <v>38.969021</v>
       </c>
       <c r="I10">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492308</v>
       </c>
       <c r="J10">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N10">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O10">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P10">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q10">
-        <v>620.9400614672581</v>
+        <v>653.0981812680375</v>
       </c>
       <c r="R10">
-        <v>620.9400614672581</v>
+        <v>5877.883631412337</v>
       </c>
       <c r="S10">
-        <v>0.1500090974644065</v>
+        <v>0.1302181671846024</v>
       </c>
       <c r="T10">
-        <v>0.1500090974644065</v>
+        <v>0.1302181671846024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.9662173749444</v>
+        <v>12.98967366666667</v>
       </c>
       <c r="H11">
-        <v>12.9662173749444</v>
+        <v>38.969021</v>
       </c>
       <c r="I11">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492308</v>
       </c>
       <c r="J11">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N11">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P11">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q11">
-        <v>702.223419153898</v>
+        <v>705.8234745158162</v>
       </c>
       <c r="R11">
-        <v>702.223419153898</v>
+        <v>6352.411270642345</v>
       </c>
       <c r="S11">
-        <v>0.1696458448448819</v>
+        <v>0.1407308148200099</v>
       </c>
       <c r="T11">
-        <v>0.1696458448448819</v>
+        <v>0.1407308148200099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.9662173749444</v>
+        <v>12.98967366666667</v>
       </c>
       <c r="H12">
-        <v>12.9662173749444</v>
+        <v>38.969021</v>
       </c>
       <c r="I12">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492308</v>
       </c>
       <c r="J12">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N12">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P12">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q12">
-        <v>131.9302335326421</v>
+        <v>132.2772156030376</v>
       </c>
       <c r="R12">
-        <v>131.9302335326421</v>
+        <v>1190.494940427338</v>
       </c>
       <c r="S12">
-        <v>0.03187221519213185</v>
+        <v>0.02637413036837226</v>
       </c>
       <c r="T12">
-        <v>0.03187221519213185</v>
+        <v>0.02637413036837225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.9662173749444</v>
+        <v>12.98967366666667</v>
       </c>
       <c r="H13">
-        <v>12.9662173749444</v>
+        <v>38.969021</v>
       </c>
       <c r="I13">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492308</v>
       </c>
       <c r="J13">
-        <v>0.4622973677163286</v>
+        <v>0.3909055980492307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N13">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P13">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q13">
-        <v>94.84064673099101</v>
+        <v>98.69092918518166</v>
       </c>
       <c r="R13">
-        <v>94.84064673099101</v>
+        <v>888.2183626666349</v>
       </c>
       <c r="S13">
-        <v>0.02291196961175094</v>
+        <v>0.0196775190696258</v>
       </c>
       <c r="T13">
-        <v>0.02291196961175094</v>
+        <v>0.0196775190696258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.22929728951392</v>
+        <v>1.688407666666667</v>
       </c>
       <c r="H14">
-        <v>1.22929728951392</v>
+        <v>5.065223</v>
       </c>
       <c r="I14">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339322</v>
       </c>
       <c r="J14">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339321</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N14">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P14">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q14">
-        <v>5.789669441143825</v>
+        <v>8.528102662931444</v>
       </c>
       <c r="R14">
-        <v>5.789669441143825</v>
+        <v>76.75292396638299</v>
       </c>
       <c r="S14">
-        <v>0.001398690697184202</v>
+        <v>0.00170037818230165</v>
       </c>
       <c r="T14">
-        <v>0.001398690697184202</v>
+        <v>0.00170037818230165</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.22929728951392</v>
+        <v>1.688407666666667</v>
       </c>
       <c r="H15">
-        <v>1.22929728951392</v>
+        <v>5.065223</v>
       </c>
       <c r="I15">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339322</v>
       </c>
       <c r="J15">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339321</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N15">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P15">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q15">
-        <v>28.6896122998244</v>
+        <v>39.6510986180201</v>
       </c>
       <c r="R15">
-        <v>28.6896122998244</v>
+        <v>356.8598875621809</v>
       </c>
       <c r="S15">
-        <v>0.006930947308393836</v>
+        <v>0.007905845609414481</v>
       </c>
       <c r="T15">
-        <v>0.006930947308393836</v>
+        <v>0.007905845609414481</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.22929728951392</v>
+        <v>1.688407666666667</v>
       </c>
       <c r="H16">
-        <v>1.22929728951392</v>
+        <v>5.065223</v>
       </c>
       <c r="I16">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339322</v>
       </c>
       <c r="J16">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339321</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N16">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O16">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P16">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q16">
-        <v>58.86990110063464</v>
+        <v>84.89019852505488</v>
       </c>
       <c r="R16">
-        <v>58.86990110063464</v>
+        <v>764.0117867254939</v>
       </c>
       <c r="S16">
-        <v>0.01422201800131514</v>
+        <v>0.01692585644995529</v>
       </c>
       <c r="T16">
-        <v>0.01422201800131514</v>
+        <v>0.01692585644995529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.22929728951392</v>
+        <v>1.688407666666667</v>
       </c>
       <c r="H17">
-        <v>1.22929728951392</v>
+        <v>5.065223</v>
       </c>
       <c r="I17">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339322</v>
       </c>
       <c r="J17">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339321</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N17">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P17">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q17">
-        <v>66.57618955757988</v>
+        <v>91.74347225857754</v>
       </c>
       <c r="R17">
-        <v>66.57618955757988</v>
+        <v>825.6912503271978</v>
       </c>
       <c r="S17">
-        <v>0.01608373292029639</v>
+        <v>0.01829229838838023</v>
       </c>
       <c r="T17">
-        <v>0.01608373292029639</v>
+        <v>0.01829229838838023</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.22929728951392</v>
+        <v>1.688407666666667</v>
       </c>
       <c r="H18">
-        <v>1.22929728951392</v>
+        <v>5.065223</v>
       </c>
       <c r="I18">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339322</v>
       </c>
       <c r="J18">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339321</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N18">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P18">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q18">
-        <v>12.50800243408004</v>
+        <v>17.19349313005489</v>
       </c>
       <c r="R18">
-        <v>12.50800243408004</v>
+        <v>154.741438170494</v>
       </c>
       <c r="S18">
-        <v>0.003021731520728888</v>
+        <v>0.003428129532606878</v>
       </c>
       <c r="T18">
-        <v>0.003021731520728888</v>
+        <v>0.003428129532606877</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.22929728951392</v>
+        <v>1.688407666666667</v>
       </c>
       <c r="H19">
-        <v>1.22929728951392</v>
+        <v>5.065223</v>
       </c>
       <c r="I19">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339322</v>
       </c>
       <c r="J19">
-        <v>0.04382935166437002</v>
+        <v>0.05081020706339321</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N19">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O19">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P19">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q19">
-        <v>8.991623893907949</v>
+        <v>12.82792206661167</v>
       </c>
       <c r="R19">
-        <v>8.991623893907949</v>
+        <v>115.451298599505</v>
       </c>
       <c r="S19">
-        <v>0.002172231216451553</v>
+        <v>0.002557698900734694</v>
       </c>
       <c r="T19">
-        <v>0.002172231216451553</v>
+        <v>0.002557698900734694</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.20167315811689</v>
+        <v>1.630730333333333</v>
       </c>
       <c r="H20">
-        <v>1.20167315811689</v>
+        <v>4.892191</v>
       </c>
       <c r="I20">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="J20">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N20">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O20">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P20">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q20">
-        <v>5.65956699094582</v>
+        <v>8.236775971101222</v>
       </c>
       <c r="R20">
-        <v>5.65956699094582</v>
+        <v>74.130983739911</v>
       </c>
       <c r="S20">
-        <v>0.001367260044947021</v>
+        <v>0.001642291926742908</v>
       </c>
       <c r="T20">
-        <v>0.001367260044947021</v>
+        <v>0.001642291926742908</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.20167315811689</v>
+        <v>1.630730333333333</v>
       </c>
       <c r="H21">
-        <v>1.20167315811689</v>
+        <v>4.892191</v>
       </c>
       <c r="I21">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="J21">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N21">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O21">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P21">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q21">
-        <v>28.04491420550617</v>
+        <v>38.29658591520855</v>
       </c>
       <c r="R21">
-        <v>28.04491420550617</v>
+        <v>344.669273236877</v>
       </c>
       <c r="S21">
-        <v>0.006775198653624842</v>
+        <v>0.007635775707756014</v>
       </c>
       <c r="T21">
-        <v>0.006775198653624842</v>
+        <v>0.007635775707756015</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.20167315811689</v>
+        <v>1.630730333333333</v>
       </c>
       <c r="H22">
-        <v>1.20167315811689</v>
+        <v>4.892191</v>
       </c>
       <c r="I22">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="J22">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N22">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O22">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P22">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q22">
-        <v>57.54700720246529</v>
+        <v>81.99028260206644</v>
       </c>
       <c r="R22">
-        <v>57.54700720246529</v>
+        <v>737.912543418598</v>
       </c>
       <c r="S22">
-        <v>0.0139024281857754</v>
+        <v>0.01634765588637721</v>
       </c>
       <c r="T22">
-        <v>0.0139024281857754</v>
+        <v>0.01634765588637721</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.20167315811689</v>
+        <v>1.630730333333333</v>
       </c>
       <c r="H23">
-        <v>1.20167315811689</v>
+        <v>4.892191</v>
       </c>
       <c r="I23">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="J23">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N23">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O23">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P23">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q23">
-        <v>65.08012394030403</v>
+        <v>88.60944311675178</v>
       </c>
       <c r="R23">
-        <v>65.08012394030403</v>
+        <v>797.484988050766</v>
       </c>
       <c r="S23">
-        <v>0.0157223076122485</v>
+        <v>0.01766741909387765</v>
       </c>
       <c r="T23">
-        <v>0.0157223076122485</v>
+        <v>0.01766741909387766</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.20167315811689</v>
+        <v>1.630730333333333</v>
       </c>
       <c r="H24">
-        <v>1.20167315811689</v>
+        <v>4.892191</v>
       </c>
       <c r="I24">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="J24">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N24">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O24">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P24">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q24">
-        <v>12.22692908778638</v>
+        <v>16.60614988706645</v>
       </c>
       <c r="R24">
-        <v>12.22692908778638</v>
+        <v>149.455348983598</v>
       </c>
       <c r="S24">
-        <v>0.002953828736522662</v>
+        <v>0.003311021932549381</v>
       </c>
       <c r="T24">
-        <v>0.002953828736522662</v>
+        <v>0.003311021932549381</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.20167315811689</v>
+        <v>1.630730333333333</v>
       </c>
       <c r="H25">
-        <v>1.20167315811689</v>
+        <v>4.892191</v>
       </c>
       <c r="I25">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="J25">
-        <v>0.0428444411958031</v>
+        <v>0.04907449044270484</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N25">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O25">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P25">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q25">
-        <v>8.789568783206287</v>
+        <v>12.38971016339833</v>
       </c>
       <c r="R25">
-        <v>8.789568783206287</v>
+        <v>111.507391470585</v>
       </c>
       <c r="S25">
-        <v>0.002123417962684667</v>
+        <v>0.002470325895401677</v>
       </c>
       <c r="T25">
-        <v>0.002123417962684667</v>
+        <v>0.002470325895401677</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.164355211521981</v>
+        <v>0.177567</v>
       </c>
       <c r="H26">
-        <v>0.164355211521981</v>
+        <v>0.532701</v>
       </c>
       <c r="I26">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563459</v>
       </c>
       <c r="J26">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563458</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N26">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O26">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P26">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q26">
-        <v>0.7740701567948651</v>
+        <v>0.8968862410690001</v>
       </c>
       <c r="R26">
-        <v>0.7740701567948651</v>
+        <v>8.071976169620999</v>
       </c>
       <c r="S26">
-        <v>0.0001870028571204569</v>
+        <v>0.0001788259190346154</v>
       </c>
       <c r="T26">
-        <v>0.0001870028571204569</v>
+        <v>0.0001788259190346153</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.164355211521981</v>
+        <v>0.177567</v>
       </c>
       <c r="H27">
-        <v>0.164355211521981</v>
+        <v>0.532701</v>
       </c>
       <c r="I27">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563459</v>
       </c>
       <c r="J27">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563458</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N27">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O27">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P27">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q27">
-        <v>3.835758313504256</v>
+        <v>4.170039479982999</v>
       </c>
       <c r="R27">
-        <v>3.835758313504256</v>
+        <v>37.530355319847</v>
       </c>
       <c r="S27">
-        <v>0.0009266573030265147</v>
+        <v>0.0008314445113237272</v>
       </c>
       <c r="T27">
-        <v>0.0009266573030265147</v>
+        <v>0.0008314445113237272</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.164355211521981</v>
+        <v>0.177567</v>
       </c>
       <c r="H28">
-        <v>0.164355211521981</v>
+        <v>0.532701</v>
       </c>
       <c r="I28">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563459</v>
       </c>
       <c r="J28">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563458</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N28">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O28">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P28">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q28">
-        <v>7.870817848706682</v>
+        <v>8.927759675041999</v>
       </c>
       <c r="R28">
-        <v>7.870817848706682</v>
+        <v>80.34983707537799</v>
       </c>
       <c r="S28">
-        <v>0.001901462564681839</v>
+        <v>0.001780063909673401</v>
       </c>
       <c r="T28">
-        <v>0.001901462564681839</v>
+        <v>0.001780063909673401</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.164355211521981</v>
+        <v>0.177567</v>
       </c>
       <c r="H29">
-        <v>0.164355211521981</v>
+        <v>0.532701</v>
       </c>
       <c r="I29">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563459</v>
       </c>
       <c r="J29">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563458</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N29">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O29">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P29">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q29">
-        <v>8.901137105240188</v>
+        <v>9.648506969113999</v>
       </c>
       <c r="R29">
-        <v>8.901137105240188</v>
+        <v>86.83656272202599</v>
       </c>
       <c r="S29">
-        <v>0.002150371068680722</v>
+        <v>0.00192377031451301</v>
       </c>
       <c r="T29">
-        <v>0.002150371068680722</v>
+        <v>0.00192377031451301</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.164355211521981</v>
+        <v>0.177567</v>
       </c>
       <c r="H30">
-        <v>0.164355211521981</v>
+        <v>0.532701</v>
       </c>
       <c r="I30">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563459</v>
       </c>
       <c r="J30">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563458</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N30">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O30">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P30">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q30">
-        <v>1.672301243406751</v>
+        <v>1.808210810042</v>
       </c>
       <c r="R30">
-        <v>1.672301243406751</v>
+        <v>16.273897290378</v>
       </c>
       <c r="S30">
-        <v>0.0004040009910445751</v>
+        <v>0.0003605306281972613</v>
       </c>
       <c r="T30">
-        <v>0.0004040009910445751</v>
+        <v>0.0003605306281972613</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.164355211521981</v>
+        <v>0.177567</v>
       </c>
       <c r="H31">
-        <v>0.164355211521981</v>
+        <v>0.532701</v>
       </c>
       <c r="I31">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563459</v>
       </c>
       <c r="J31">
-        <v>0.005859918853735708</v>
+        <v>0.005343624182563458</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N31">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O31">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P31">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q31">
-        <v>1.202166684670466</v>
+        <v>1.349091029715</v>
       </c>
       <c r="R31">
-        <v>1.202166684670466</v>
+        <v>12.141819267435</v>
       </c>
       <c r="S31">
-        <v>0.0002904240691816008</v>
+        <v>0.0002689888998214437</v>
       </c>
       <c r="T31">
-        <v>0.0002904240691816008</v>
+        <v>0.0002689888998214437</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.7681105922455</v>
+        <v>15.16201466666667</v>
       </c>
       <c r="H32">
-        <v>11.7681105922455</v>
+        <v>45.486044</v>
       </c>
       <c r="I32">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="J32">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.70973904402989</v>
+        <v>5.050973666666667</v>
       </c>
       <c r="N32">
-        <v>4.70973904402989</v>
+        <v>15.152921</v>
       </c>
       <c r="O32">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="P32">
-        <v>0.03191219226546835</v>
+        <v>0.03346528740141087</v>
       </c>
       <c r="Q32">
-        <v>55.42472993076034</v>
+        <v>76.5829368149471</v>
       </c>
       <c r="R32">
-        <v>55.42472993076034</v>
+        <v>689.246431334524</v>
       </c>
       <c r="S32">
-        <v>0.01338972024848206</v>
+        <v>0.01526951070403275</v>
       </c>
       <c r="T32">
-        <v>0.01338972024848206</v>
+        <v>0.01526951070403275</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.7681105922455</v>
+        <v>15.16201466666667</v>
       </c>
       <c r="H33">
-        <v>11.7681105922455</v>
+        <v>45.486044</v>
       </c>
       <c r="I33">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="J33">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>23.338221392458</v>
+        <v>23.48431566666666</v>
       </c>
       <c r="N33">
-        <v>23.338221392458</v>
+        <v>70.45294699999999</v>
       </c>
       <c r="O33">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="P33">
-        <v>0.1581348353374841</v>
+        <v>0.1555956188005842</v>
       </c>
       <c r="Q33">
-        <v>274.6467703727555</v>
+        <v>356.0695385746297</v>
       </c>
       <c r="R33">
-        <v>274.6467703727555</v>
+        <v>3204.625847171668</v>
       </c>
       <c r="S33">
-        <v>0.06635022718260158</v>
+        <v>0.07099502652638075</v>
       </c>
       <c r="T33">
-        <v>0.06635022718260158</v>
+        <v>0.07099502652638076</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.7681105922455</v>
+        <v>15.16201466666667</v>
       </c>
       <c r="H34">
-        <v>11.7681105922455</v>
+        <v>45.486044</v>
       </c>
       <c r="I34">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="J34">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.889067683467</v>
+        <v>50.27825933333333</v>
       </c>
       <c r="N34">
-        <v>47.889067683467</v>
+        <v>150.834778</v>
       </c>
       <c r="O34">
-        <v>0.3244861596453086</v>
+        <v>0.3331192181294949</v>
       </c>
       <c r="P34">
-        <v>0.3244861596453086</v>
+        <v>0.333119218129495</v>
       </c>
       <c r="Q34">
-        <v>563.5638446585697</v>
+        <v>762.3197054264701</v>
       </c>
       <c r="R34">
-        <v>563.5638446585697</v>
+        <v>6860.877348838232</v>
       </c>
       <c r="S34">
-        <v>0.136147929481372</v>
+        <v>0.1519953319370835</v>
       </c>
       <c r="T34">
-        <v>0.136147929481372</v>
+        <v>0.1519953319370835</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.7681105922455</v>
+        <v>15.16201466666667</v>
       </c>
       <c r="H35">
-        <v>11.7681105922455</v>
+        <v>45.486044</v>
       </c>
       <c r="I35">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="J35">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>54.1579243080451</v>
+        <v>54.33727533333333</v>
       </c>
       <c r="N35">
-        <v>54.1579243080451</v>
+        <v>163.011826</v>
       </c>
       <c r="O35">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="P35">
-        <v>0.3669626017619436</v>
+        <v>0.3600122779574169</v>
       </c>
       <c r="Q35">
-        <v>637.3364427035356</v>
+        <v>823.8625655507049</v>
       </c>
       <c r="R35">
-        <v>637.3364427035356</v>
+        <v>7414.763089956344</v>
       </c>
       <c r="S35">
-        <v>0.1539701985489852</v>
+        <v>0.1642660726595832</v>
       </c>
       <c r="T35">
-        <v>0.1539701985489852</v>
+        <v>0.1642660726595832</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.7681105922455</v>
+        <v>15.16201466666667</v>
       </c>
       <c r="H36">
-        <v>11.7681105922455</v>
+        <v>45.486044</v>
       </c>
       <c r="I36">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="J36">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.1749206971943</v>
+        <v>10.18325933333333</v>
       </c>
       <c r="N36">
-        <v>10.1749206971943</v>
+        <v>30.549778</v>
       </c>
       <c r="O36">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="P36">
-        <v>0.06894310333103397</v>
+        <v>0.06746930844682017</v>
       </c>
       <c r="Q36">
-        <v>119.7395920319102</v>
+        <v>154.3987273664702</v>
       </c>
       <c r="R36">
-        <v>119.7395920319102</v>
+        <v>1389.588546298232</v>
       </c>
       <c r="S36">
-        <v>0.02892715295099417</v>
+        <v>0.03078483430203485</v>
       </c>
       <c r="T36">
-        <v>0.02892715295099417</v>
+        <v>0.03078483430203485</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.7681105922455</v>
+        <v>15.16201466666667</v>
       </c>
       <c r="H37">
-        <v>11.7681105922455</v>
+        <v>45.486044</v>
       </c>
       <c r="I37">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="J37">
-        <v>0.4195800820293643</v>
+        <v>0.4562790846789203</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.31444213747787</v>
+        <v>7.597645</v>
       </c>
       <c r="N37">
-        <v>7.31444213747787</v>
+        <v>22.792935</v>
       </c>
       <c r="O37">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="P37">
-        <v>0.04956110765876134</v>
+        <v>0.05033828926427299</v>
       </c>
       <c r="Q37">
-        <v>86.07716399442013</v>
+        <v>115.1956049221267</v>
       </c>
       <c r="R37">
-        <v>86.07716399442013</v>
+        <v>1036.76044429914</v>
       </c>
       <c r="S37">
-        <v>0.02079485361692924</v>
+        <v>0.0229683085498052</v>
       </c>
       <c r="T37">
-        <v>0.02079485361692924</v>
+        <v>0.0229683085498052</v>
       </c>
     </row>
   </sheetData>
